--- a/MarsFramework/ExcelData/TestDataShareSkill.xlsx
+++ b/MarsFramework/ExcelData/TestDataShareSkill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\source\repos\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9272ECE-833C-43AE-9AC5-5DC008F12B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156ABE69-8373-4337-B138-1AD9A4A078CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>Url</t>
   </si>
@@ -136,6 +136,15 @@
   </si>
   <si>
     <t>Mon</t>
+  </si>
+  <si>
+    <t>HTML</t>
+  </si>
+  <si>
+    <t>Seriously HTML and CSS</t>
+  </si>
+  <si>
+    <t>Development</t>
   </si>
 </sst>
 </file>
@@ -144,7 +153,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -198,7 +207,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -645,10 +654,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,6 +774,26 @@
         <v>35</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
